--- a/Admission/EducationalBackground2024.xlsx
+++ b/Admission/EducationalBackground2024.xlsx
@@ -470,7 +470,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,6 +783,56 @@
         <v>25</v>
       </c>
       <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>71564</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2016</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>2020</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>2022</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Admission/EducationalBackground2024.xlsx
+++ b/Admission/EducationalBackground2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>User ID</t>
   </si>
@@ -71,67 +71,22 @@
     <t>Vocational Type</t>
   </si>
   <si>
-    <t>Librada Elem School</t>
-  </si>
-  <si>
-    <t>Tondo Manila</t>
+    <t>School</t>
+  </si>
+  <si>
+    <t>SchoolAddress</t>
   </si>
   <si>
     <t>Public</t>
   </si>
   <si>
-    <t>Florentino Torres High School</t>
-  </si>
-  <si>
-    <t>Juan Luna Tondo</t>
-  </si>
-  <si>
-    <t>Gen. Pantaleon SHS</t>
-  </si>
-  <si>
-    <t>Imus Cavite</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>SchoolAddress</t>
-  </si>
-  <si>
     <t>HighSchool</t>
   </si>
   <si>
-    <t>HSaddress</t>
-  </si>
-  <si>
     <t>SHS</t>
   </si>
   <si>
     <t>SHSAddress</t>
-  </si>
-  <si>
-    <t>Malagasang II Elementary School</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Gen. Tomas Mascardo</t>
-  </si>
-  <si>
-    <t>UCC</t>
-  </si>
-  <si>
-    <t>SHSAddres</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>SHSName</t>
   </si>
 </sst>
 </file>
@@ -470,7 +425,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,10 +491,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>31143</v>
+        <v>38710</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -557,7 +512,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>2020</v>
@@ -566,10 +521,10 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
       </c>
       <c r="M2">
         <v>2022</v>
@@ -579,260 +534,8 @@
       </c>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q2"/>
       <c r="R2"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>21664</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>2016</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3">
-        <v>2020</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3">
-        <v>2022</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>13416</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>2015</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>2019</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <v>2021</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>74283</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>2016</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5">
-        <v>2020</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5">
-        <v>2022</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>67395</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>2016</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6">
-        <v>2020</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>2022</v>
-      </c>
-      <c r="N6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>71564</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>2016</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7">
-        <v>2020</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7">
-        <v>2022</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
